--- a/健康检查表.xlsx
+++ b/健康检查表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
   <si>
     <t>身份证号</t>
   </si>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>戒烟龄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -159,10 +155,6 @@
       </rPr>
       <t>饮酒频率</t>
     </r>
-  </si>
-  <si>
-    <t>酒量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否戒酒</t>
@@ -608,13 +600,34 @@
     <t>4.8</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日饮酒量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒烟年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>320111201303026313</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减重范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险因素控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -676,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,6 +699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -782,6 +801,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1078,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF6"/>
+  <dimension ref="A1:EG6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1100,10 +1129,10 @@
     <col min="112" max="112" width="8.5" customWidth="1"/>
     <col min="113" max="113" width="7.75" customWidth="1"/>
     <col min="114" max="114" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.625" customWidth="1"/>
+    <col min="115" max="116" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" s="8" customFormat="1" ht="12.75">
+    <row r="1" spans="1:137" s="8" customFormat="1" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,271 +1215,275 @@
         <v>26</v>
       </c>
       <c r="AB1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CB1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="CY1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DC1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DI1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DJ1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="6" t="s">
+      <c r="DK1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="DL1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="7"/>
-      <c r="DM1" s="7"/>
+      <c r="DM1" s="24" t="s">
+        <v>141</v>
+      </c>
       <c r="DN1" s="7"/>
       <c r="DO1" s="7"/>
       <c r="DP1" s="7"/>
@@ -1470,16 +1503,17 @@
       <c r="ED1" s="7"/>
       <c r="EE1" s="7"/>
       <c r="EF1" s="7"/>
+      <c r="EG1" s="7"/>
     </row>
-    <row r="2" spans="1:136" ht="12.75" customHeight="1">
+    <row r="2" spans="1:137" ht="12.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -1505,26 +1539,18 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>0</v>
-      </c>
-      <c r="R2" s="9">
-        <v>0</v>
-      </c>
-      <c r="S2" s="9">
-        <v>0</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="9">
         <v>2</v>
       </c>
@@ -1532,10 +1558,10 @@
         <v>30</v>
       </c>
       <c r="V2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X2" s="9">
         <v>1</v>
@@ -1543,33 +1569,17 @@
       <c r="Y2" s="9">
         <v>1</v>
       </c>
-      <c r="Z2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>0</v>
-      </c>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
       <c r="AC2" s="9">
         <v>1</v>
       </c>
-      <c r="AD2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>0</v>
-      </c>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
       <c r="AI2" s="9">
         <v>1</v>
       </c>
@@ -1577,23 +1587,19 @@
         <v>1</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL2" s="22">
         <v>1</v>
       </c>
       <c r="AM2" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="9">
-        <v>0</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
       <c r="AQ2" s="9">
         <v>1</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA2" s="9">
         <v>1</v>
@@ -1651,126 +1657,46 @@
       <c r="BI2" s="9">
         <v>2</v>
       </c>
-      <c r="BJ2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="9">
-        <v>0</v>
-      </c>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="9"/>
+      <c r="BQ2" s="9"/>
+      <c r="BR2" s="9"/>
+      <c r="BS2" s="9"/>
+      <c r="BT2" s="9"/>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="9"/>
+      <c r="BW2" s="9"/>
+      <c r="BX2" s="9"/>
+      <c r="BY2" s="9"/>
+      <c r="BZ2" s="9"/>
+      <c r="CA2" s="9"/>
+      <c r="CB2" s="9"/>
+      <c r="CC2" s="9"/>
+      <c r="CD2" s="9"/>
+      <c r="CE2" s="9"/>
+      <c r="CF2" s="9"/>
+      <c r="CG2" s="9"/>
+      <c r="CH2" s="9"/>
+      <c r="CI2" s="9"/>
+      <c r="CJ2" s="9"/>
+      <c r="CK2" s="9"/>
+      <c r="CL2" s="9"/>
+      <c r="CM2" s="9"/>
+      <c r="CN2" s="9"/>
+      <c r="CO2" s="9"/>
+      <c r="CP2" s="9"/>
+      <c r="CQ2" s="9"/>
+      <c r="CR2" s="9"/>
+      <c r="CS2" s="9"/>
+      <c r="CT2" s="9"/>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9"/>
+      <c r="CW2" s="9"/>
       <c r="CX2" s="9">
         <v>1</v>
       </c>
@@ -1805,24 +1731,28 @@
         <v>2</v>
       </c>
       <c r="DI2" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ2" s="21" t="s">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="DJ2" s="21"/>
       <c r="DK2" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="DL2" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM2" s="26">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:136">
+    <row r="3" spans="1:137">
       <c r="A3" s="14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -1848,26 +1778,18 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="P3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>0</v>
-      </c>
-      <c r="R3" s="22">
-        <v>0</v>
-      </c>
-      <c r="S3" s="22">
-        <v>0</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="22">
         <v>2</v>
       </c>
@@ -1875,297 +1797,197 @@
         <v>30</v>
       </c>
       <c r="V3" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="22">
+        <v>84</v>
+      </c>
+      <c r="BA3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="22">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
+      <c r="BL3" s="22"/>
+      <c r="BM3" s="22"/>
+      <c r="BN3" s="22"/>
+      <c r="BO3" s="22"/>
+      <c r="BP3" s="22"/>
+      <c r="BQ3" s="22"/>
+      <c r="BR3" s="22"/>
+      <c r="BS3" s="22"/>
+      <c r="BT3" s="22"/>
+      <c r="BU3" s="22"/>
+      <c r="BV3" s="22"/>
+      <c r="BW3" s="22"/>
+      <c r="BX3" s="22"/>
+      <c r="BY3" s="22"/>
+      <c r="BZ3" s="22"/>
+      <c r="CA3" s="22"/>
+      <c r="CB3" s="22"/>
+      <c r="CC3" s="22"/>
+      <c r="CD3" s="22"/>
+      <c r="CE3" s="22"/>
+      <c r="CF3" s="22"/>
+      <c r="CG3" s="22"/>
+      <c r="CH3" s="22"/>
+      <c r="CI3" s="22"/>
+      <c r="CJ3" s="22"/>
+      <c r="CK3" s="22"/>
+      <c r="CL3" s="22"/>
+      <c r="CM3" s="22"/>
+      <c r="CN3" s="22"/>
+      <c r="CO3" s="22"/>
+      <c r="CP3" s="22"/>
+      <c r="CQ3" s="22"/>
+      <c r="CR3" s="22"/>
+      <c r="CS3" s="22"/>
+      <c r="CT3" s="22"/>
+      <c r="CU3" s="22"/>
+      <c r="CV3" s="22"/>
+      <c r="CW3" s="22"/>
+      <c r="CX3" s="22">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="22">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="22">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="22">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="22">
+        <v>1</v>
+      </c>
+      <c r="DC3" s="22">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="22">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="22">
+        <v>2</v>
+      </c>
+      <c r="DF3" s="22">
+        <v>2</v>
+      </c>
+      <c r="DG3" s="22">
+        <v>2</v>
+      </c>
+      <c r="DH3" s="22">
+        <v>2</v>
+      </c>
+      <c r="DI3" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ3" s="21"/>
+      <c r="DK3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="DL3" s="25"/>
+      <c r="DM3" s="26"/>
+    </row>
+    <row r="4" spans="1:137">
+      <c r="A4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="X3" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN3" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="22">
-        <v>81</v>
-      </c>
-      <c r="BA3" s="22">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="22">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="22">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="22">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="22">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="22">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="22">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="22">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="22">
-        <v>2</v>
-      </c>
-      <c r="BJ3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="22">
-        <v>0</v>
-      </c>
-      <c r="CX3" s="22">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="22">
-        <v>1</v>
-      </c>
-      <c r="CZ3" s="22">
-        <v>1</v>
-      </c>
-      <c r="DA3" s="22">
-        <v>1</v>
-      </c>
-      <c r="DB3" s="22">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="22">
-        <v>1</v>
-      </c>
-      <c r="DD3" s="22">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="22">
-        <v>2</v>
-      </c>
-      <c r="DF3" s="22">
-        <v>2</v>
-      </c>
-      <c r="DG3" s="22">
-        <v>2</v>
-      </c>
-      <c r="DH3" s="22">
-        <v>2</v>
-      </c>
-      <c r="DI3" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ3" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="DK3" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:136">
-      <c r="A4" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="B4" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -2174,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="22">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="G4" s="22">
         <v>81</v>
@@ -2191,26 +2013,18 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
-        <v>0</v>
-      </c>
-      <c r="S4" s="22">
-        <v>0</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
       <c r="T4" s="22">
         <v>2</v>
       </c>
@@ -2218,10 +2032,10 @@
         <v>30</v>
       </c>
       <c r="V4" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X4" s="22">
         <v>1</v>
@@ -2229,33 +2043,17 @@
       <c r="Y4" s="22">
         <v>1</v>
       </c>
-      <c r="Z4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="22">
-        <v>0</v>
-      </c>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
       <c r="AC4" s="22">
         <v>1</v>
       </c>
-      <c r="AD4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="22">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
       <c r="AI4" s="22">
         <v>1</v>
       </c>
@@ -2263,252 +2061,168 @@
         <v>1</v>
       </c>
       <c r="AK4" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL4" s="22">
         <v>1</v>
       </c>
       <c r="AM4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="22">
+        <v>79</v>
+      </c>
+      <c r="BA4" s="22">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="22">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="22">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="22">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
+      <c r="BL4" s="22"/>
+      <c r="BM4" s="22"/>
+      <c r="BN4" s="22"/>
+      <c r="BO4" s="22"/>
+      <c r="BP4" s="22"/>
+      <c r="BQ4" s="22"/>
+      <c r="BR4" s="22"/>
+      <c r="BS4" s="22"/>
+      <c r="BT4" s="22"/>
+      <c r="BU4" s="22"/>
+      <c r="BV4" s="22"/>
+      <c r="BW4" s="22"/>
+      <c r="BX4" s="22"/>
+      <c r="BY4" s="22"/>
+      <c r="BZ4" s="22"/>
+      <c r="CA4" s="22"/>
+      <c r="CB4" s="22"/>
+      <c r="CC4" s="22"/>
+      <c r="CD4" s="22"/>
+      <c r="CE4" s="22"/>
+      <c r="CF4" s="22"/>
+      <c r="CG4" s="22"/>
+      <c r="CH4" s="22"/>
+      <c r="CI4" s="22"/>
+      <c r="CJ4" s="22"/>
+      <c r="CK4" s="22"/>
+      <c r="CL4" s="22"/>
+      <c r="CM4" s="22"/>
+      <c r="CN4" s="22"/>
+      <c r="CO4" s="22"/>
+      <c r="CP4" s="22"/>
+      <c r="CQ4" s="22"/>
+      <c r="CR4" s="22"/>
+      <c r="CS4" s="22"/>
+      <c r="CT4" s="22"/>
+      <c r="CU4" s="22"/>
+      <c r="CV4" s="22"/>
+      <c r="CW4" s="22"/>
+      <c r="CX4" s="22">
+        <v>1</v>
+      </c>
+      <c r="CY4" s="22">
+        <v>1</v>
+      </c>
+      <c r="CZ4" s="22">
+        <v>1</v>
+      </c>
+      <c r="DA4" s="22">
+        <v>1</v>
+      </c>
+      <c r="DB4" s="22">
+        <v>1</v>
+      </c>
+      <c r="DC4" s="22">
+        <v>1</v>
+      </c>
+      <c r="DD4" s="22">
+        <v>1</v>
+      </c>
+      <c r="DE4" s="22">
+        <v>2</v>
+      </c>
+      <c r="DF4" s="22">
+        <v>2</v>
+      </c>
+      <c r="DG4" s="22">
+        <v>2</v>
+      </c>
+      <c r="DH4" s="22">
+        <v>2</v>
+      </c>
+      <c r="DI4" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ4" s="21"/>
+      <c r="DK4" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AN4" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="22">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="22">
-        <v>81</v>
-      </c>
-      <c r="BA4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="22">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="22">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CP4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CR4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CT4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="22">
-        <v>0</v>
-      </c>
-      <c r="CX4" s="22">
-        <v>1</v>
-      </c>
-      <c r="CY4" s="22">
-        <v>1</v>
-      </c>
-      <c r="CZ4" s="22">
-        <v>1</v>
-      </c>
-      <c r="DA4" s="22">
-        <v>1</v>
-      </c>
-      <c r="DB4" s="22">
-        <v>1</v>
-      </c>
-      <c r="DC4" s="22">
-        <v>1</v>
-      </c>
-      <c r="DD4" s="22">
-        <v>1</v>
-      </c>
-      <c r="DE4" s="22">
-        <v>2</v>
-      </c>
-      <c r="DF4" s="22">
-        <v>2</v>
-      </c>
-      <c r="DG4" s="22">
-        <v>2</v>
-      </c>
-      <c r="DH4" s="22">
-        <v>2</v>
-      </c>
-      <c r="DI4" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ4" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="DK4" s="23" t="s">
-        <v>139</v>
-      </c>
+      <c r="DL4" s="25"/>
+      <c r="DM4" s="26"/>
     </row>
-    <row r="5" spans="1:136">
+    <row r="5" spans="1:137">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -2534,26 +2248,18 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="O5" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>0</v>
-      </c>
-      <c r="R5" s="22">
-        <v>0</v>
-      </c>
-      <c r="S5" s="22">
-        <v>0</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
       <c r="T5" s="22">
         <v>2</v>
       </c>
@@ -2561,10 +2267,10 @@
         <v>30</v>
       </c>
       <c r="V5" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X5" s="22">
         <v>1</v>
@@ -2572,33 +2278,17 @@
       <c r="Y5" s="22">
         <v>1</v>
       </c>
-      <c r="Z5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="22">
-        <v>0</v>
-      </c>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
       <c r="AC5" s="22">
         <v>1</v>
       </c>
-      <c r="AD5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="22">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
       <c r="AI5" s="22">
         <v>1</v>
       </c>
@@ -2606,252 +2296,168 @@
         <v>1</v>
       </c>
       <c r="AK5" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL5" s="22">
         <v>1</v>
       </c>
       <c r="AM5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="22">
+        <v>80</v>
+      </c>
+      <c r="BA5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="22">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
+      <c r="BL5" s="22"/>
+      <c r="BM5" s="22"/>
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="22"/>
+      <c r="BP5" s="22"/>
+      <c r="BQ5" s="22"/>
+      <c r="BR5" s="22"/>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="22"/>
+      <c r="BU5" s="22"/>
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="22"/>
+      <c r="BX5" s="22"/>
+      <c r="BY5" s="22"/>
+      <c r="BZ5" s="22"/>
+      <c r="CA5" s="22"/>
+      <c r="CB5" s="22"/>
+      <c r="CC5" s="22"/>
+      <c r="CD5" s="22"/>
+      <c r="CE5" s="22"/>
+      <c r="CF5" s="22"/>
+      <c r="CG5" s="22"/>
+      <c r="CH5" s="22"/>
+      <c r="CI5" s="22"/>
+      <c r="CJ5" s="22"/>
+      <c r="CK5" s="22"/>
+      <c r="CL5" s="22"/>
+      <c r="CM5" s="22"/>
+      <c r="CN5" s="22"/>
+      <c r="CO5" s="22"/>
+      <c r="CP5" s="22"/>
+      <c r="CQ5" s="22"/>
+      <c r="CR5" s="22"/>
+      <c r="CS5" s="22"/>
+      <c r="CT5" s="22"/>
+      <c r="CU5" s="22"/>
+      <c r="CV5" s="22"/>
+      <c r="CW5" s="22"/>
+      <c r="CX5" s="22">
+        <v>1</v>
+      </c>
+      <c r="CY5" s="22">
+        <v>1</v>
+      </c>
+      <c r="CZ5" s="22">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="22">
+        <v>1</v>
+      </c>
+      <c r="DB5" s="22">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="22">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="22">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="22">
+        <v>2</v>
+      </c>
+      <c r="DF5" s="22">
+        <v>2</v>
+      </c>
+      <c r="DG5" s="22">
+        <v>2</v>
+      </c>
+      <c r="DH5" s="22">
+        <v>2</v>
+      </c>
+      <c r="DI5" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ5" s="21"/>
+      <c r="DK5" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AN5" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="22">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="22">
-        <v>81</v>
-      </c>
-      <c r="BA5" s="22">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="22">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="22">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="22">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="22">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="22">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="22">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="22">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="22">
-        <v>2</v>
-      </c>
-      <c r="BJ5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="22">
-        <v>0</v>
-      </c>
-      <c r="CX5" s="22">
-        <v>1</v>
-      </c>
-      <c r="CY5" s="22">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="22">
-        <v>1</v>
-      </c>
-      <c r="DA5" s="22">
-        <v>1</v>
-      </c>
-      <c r="DB5" s="22">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="22">
-        <v>1</v>
-      </c>
-      <c r="DD5" s="22">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="22">
-        <v>2</v>
-      </c>
-      <c r="DF5" s="22">
-        <v>2</v>
-      </c>
-      <c r="DG5" s="22">
-        <v>2</v>
-      </c>
-      <c r="DH5" s="22">
-        <v>2</v>
-      </c>
-      <c r="DI5" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ5" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="DK5" s="23" t="s">
-        <v>139</v>
-      </c>
+      <c r="DL5" s="25"/>
+      <c r="DM5" s="26"/>
     </row>
-    <row r="6" spans="1:136">
+    <row r="6" spans="1:137">
       <c r="A6" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
@@ -2868,35 +2474,27 @@
       <c r="H6" s="22">
         <v>18</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22">
         <v>91</v>
       </c>
-      <c r="J6" s="22">
+      <c r="L6" s="22">
         <v>72</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
       <c r="M6" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P6" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>0</v>
-      </c>
-      <c r="R6" s="22">
-        <v>0</v>
-      </c>
-      <c r="S6" s="22">
-        <v>0</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="22">
         <v>2</v>
       </c>
@@ -2904,10 +2502,10 @@
         <v>30</v>
       </c>
       <c r="V6" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X6" s="22">
         <v>1</v>
@@ -2915,33 +2513,17 @@
       <c r="Y6" s="22">
         <v>1</v>
       </c>
-      <c r="Z6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="22">
-        <v>0</v>
-      </c>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
       <c r="AC6" s="22">
         <v>1</v>
       </c>
-      <c r="AD6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="22">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
       <c r="AI6" s="22">
         <v>1</v>
       </c>
@@ -2949,23 +2531,19 @@
         <v>1</v>
       </c>
       <c r="AK6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AL6" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="19" t="s">
-        <v>137</v>
-      </c>
       <c r="AN6" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="22">
-        <v>0</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
       <c r="AQ6" s="22">
         <v>1</v>
       </c>
@@ -3023,126 +2601,46 @@
       <c r="BI6" s="22">
         <v>2</v>
       </c>
-      <c r="BJ6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="22">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CU6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CV6" s="22">
-        <v>0</v>
-      </c>
-      <c r="CW6" s="22">
-        <v>0</v>
-      </c>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="22"/>
+      <c r="BL6" s="22"/>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="22"/>
+      <c r="BS6" s="22"/>
+      <c r="BT6" s="22"/>
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="22"/>
+      <c r="BX6" s="22"/>
+      <c r="BY6" s="22"/>
+      <c r="BZ6" s="22"/>
+      <c r="CA6" s="22"/>
+      <c r="CB6" s="22"/>
+      <c r="CC6" s="22"/>
+      <c r="CD6" s="22"/>
+      <c r="CE6" s="22"/>
+      <c r="CF6" s="22"/>
+      <c r="CG6" s="22"/>
+      <c r="CH6" s="22"/>
+      <c r="CI6" s="22"/>
+      <c r="CJ6" s="22"/>
+      <c r="CK6" s="22"/>
+      <c r="CL6" s="22"/>
+      <c r="CM6" s="22"/>
+      <c r="CN6" s="22"/>
+      <c r="CO6" s="22"/>
+      <c r="CP6" s="22"/>
+      <c r="CQ6" s="22"/>
+      <c r="CR6" s="22"/>
+      <c r="CS6" s="22"/>
+      <c r="CT6" s="22"/>
+      <c r="CU6" s="22"/>
+      <c r="CV6" s="22"/>
+      <c r="CW6" s="22"/>
       <c r="CX6" s="22">
         <v>1</v>
       </c>
@@ -3177,14 +2675,14 @@
         <v>2</v>
       </c>
       <c r="DI6" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="DJ6" s="21" t="s">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="DJ6" s="21"/>
       <c r="DK6" s="23" t="s">
-        <v>139</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="DL6" s="25"/>
+      <c r="DM6" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
